--- a/data/trans_orig/P13A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB5E6DEA-3D63-4247-A15A-FE8C45A042C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE7ED94-E4C3-4973-B3B3-F1DB5F68C4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7CA39AF-58DD-46CA-97B4-7B33E29EB01C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{473A9563-6EBD-4CCE-9175-970847AFA368}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="325">
   <si>
     <t>Población según días que sufre dolor de cabeza al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,32%</t>
+    <t>0,29%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>De 8 a 14 días al mes</t>
@@ -104,628 +104,619 @@
     <t>3,36%</t>
   </si>
   <si>
-    <t>1,64%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>De 1 a 7 días al mes</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>Ningún día o menos de un dia al mes</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>De 1 a 7 días al mes</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>Ningún día o menos de un dia al mes</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
   </si>
   <si>
     <t>22,67%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
   </si>
   <si>
     <t>25,28%</t>
   </si>
   <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
   </si>
   <si>
     <t>23,97%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
   </si>
   <si>
     <t>71,46%</t>
   </si>
   <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>76,19%</t>
   </si>
   <si>
     <t>59,95%</t>
   </si>
   <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
   </si>
   <si>
     <t>65,72%</t>
   </si>
   <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -734,103 +725,103 @@
     <t>1,26%</t>
   </si>
   <si>
-    <t>0,56%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>3,67%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>21,02%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
   </si>
   <si>
     <t>42,32%</t>
   </si>
   <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
   </si>
   <si>
     <t>33,02%</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>73,39%</t>
   </si>
   <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
+    <t>68,39%</t>
   </si>
   <si>
     <t>46,68%</t>
   </si>
   <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
   </si>
   <si>
     <t>58,34%</t>
   </si>
   <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -839,205 +830,184 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>3,54%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
   <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>2,66%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>4,24%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>84,39%</t>
   </si>
   <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
     <t>6,06%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>4,49%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>80,04%</t>
   </si>
   <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1452,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC693EB-EA41-43FE-9848-872337C13380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7429912D-CEF7-4485-AA91-CDCBA0503168}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2365,10 +2335,10 @@
         <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -2377,13 +2347,13 @@
         <v>21502</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2368,13 @@
         <v>8186</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>39</v>
@@ -2413,13 +2383,13 @@
         <v>24614</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="M20" s="7">
         <v>47</v>
@@ -2428,13 +2398,13 @@
         <v>32799</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2419,13 @@
         <v>81197</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>156</v>
@@ -2464,13 +2434,13 @@
         <v>119868</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>220</v>
@@ -2479,13 +2449,13 @@
         <v>201065</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2470,13 @@
         <v>229960</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>380</v>
@@ -2515,13 +2485,13 @@
         <v>263571</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>596</v>
@@ -2530,13 +2500,13 @@
         <v>493530</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,7 +2562,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2604,13 +2574,13 @@
         <v>2254</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -2619,13 +2589,13 @@
         <v>5067</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -2634,13 +2604,13 @@
         <v>7321</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2625,13 @@
         <v>6419</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -2670,13 +2640,13 @@
         <v>18657</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -2685,13 +2655,13 @@
         <v>25076</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,10 +2676,10 @@
         <v>17375</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>178</v>
@@ -2864,10 +2834,10 @@
         <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -2876,13 +2846,13 @@
         <v>13670</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
@@ -2891,13 +2861,13 @@
         <v>20202</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2882,13 @@
         <v>9733</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>47</v>
@@ -2927,13 +2897,13 @@
         <v>26978</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>61</v>
@@ -2942,13 +2912,13 @@
         <v>36711</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2933,13 @@
         <v>62760</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>124</v>
@@ -2978,13 +2948,13 @@
         <v>69567</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>207</v>
@@ -2993,13 +2963,13 @@
         <v>132328</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +2984,13 @@
         <v>197837</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>264</v>
@@ -3029,13 +2999,13 @@
         <v>164978</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>527</v>
@@ -3044,13 +3014,13 @@
         <v>362814</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,7 +3076,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3118,13 +3088,13 @@
         <v>7820</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>52</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>67</v>
@@ -3133,13 +3103,13 @@
         <v>47179</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="M34" s="7">
         <v>75</v>
@@ -3148,13 +3118,13 @@
         <v>54998</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3139,13 @@
         <v>26782</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>58</v>
@@ -3184,13 +3154,13 @@
         <v>40837</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>79</v>
@@ -3199,13 +3169,13 @@
         <v>67618</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3190,13 @@
         <v>130304</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>309</v>
@@ -3235,13 +3205,13 @@
         <v>338656</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>430</v>
@@ -3250,13 +3220,13 @@
         <v>468960</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3241,13 @@
         <v>454879</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="H37" s="7">
         <v>519</v>
@@ -3286,13 +3256,13 @@
         <v>373610</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>959</v>
@@ -3301,13 +3271,13 @@
         <v>828489</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,7 +3333,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3375,13 +3345,13 @@
         <v>1171</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c r="H39" s="7">
         <v>29</v>
@@ -3390,13 +3360,13 @@
         <v>30773</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>268</v>
+        <v>91</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M39" s="7">
         <v>30</v>
@@ -3405,13 +3375,13 @@
         <v>31944</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>163</v>
+        <v>267</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3396,13 @@
         <v>6994</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H40" s="7">
         <v>21</v>
@@ -3441,13 +3411,13 @@
         <v>15621</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>277</v>
+        <v>161</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M40" s="7">
         <v>29</v>
@@ -3456,13 +3426,13 @@
         <v>22615</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3447,13 @@
         <v>49834</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>176</v>
       </c>
       <c r="H41" s="7">
         <v>117</v>
@@ -3492,13 +3462,13 @@
         <v>88283</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M41" s="7">
         <v>167</v>
@@ -3507,13 +3477,13 @@
         <v>138118</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3498,13 @@
         <v>800245</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H42" s="7">
         <v>887</v>
@@ -3543,13 +3513,13 @@
         <v>727955</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M42" s="7">
         <v>1589</v>
@@ -3558,13 +3528,13 @@
         <v>1528201</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3602,13 @@
         <v>38855</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H44" s="7">
         <v>229</v>
@@ -3647,13 +3617,13 @@
         <v>168246</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M44" s="7">
         <v>271</v>
@@ -3662,13 +3632,13 @@
         <v>207101</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>307</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3653,13 @@
         <v>86055</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>309</v>
+        <v>197</v>
       </c>
       <c r="H45" s="7">
         <v>311</v>
@@ -3698,13 +3668,13 @@
         <v>202061</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>311</v>
+        <v>54</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="M45" s="7">
         <v>401</v>
@@ -3713,13 +3683,13 @@
         <v>288116</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>314</v>
+        <v>91</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3704,13 @@
         <v>548378</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H46" s="7">
         <v>1389</v>
@@ -3749,13 +3719,13 @@
         <v>1051167</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="M46" s="7">
         <v>1941</v>
@@ -3764,13 +3734,13 @@
         <v>1599544</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3755,13 @@
         <v>2699497</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="H47" s="7">
         <v>3411</v>
@@ -3800,13 +3770,13 @@
         <v>2371206</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M47" s="7">
         <v>6088</v>
@@ -3815,13 +3785,13 @@
         <v>5070703</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,7 +3847,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CE7ED94-E4C3-4973-B3B3-F1DB5F68C4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C81A0B-EE1D-4934-9089-6B53F27C5B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{473A9563-6EBD-4CCE-9175-970847AFA368}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE1C7532-EBB7-4664-B8B3-496DEB44D9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1422,7 +1422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7429912D-CEF7-4485-AA91-CDCBA0503168}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BFDBC9-80D0-4DEA-BC92-7643AF98D3AE}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C81A0B-EE1D-4934-9089-6B53F27C5B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76113FAE-A55D-4F4D-96AE-6E98AF9B682F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE1C7532-EBB7-4664-B8B3-496DEB44D9B2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3DFB1EF-7C9E-4B82-B9CA-3EBC64F80156}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="335">
   <si>
     <t>Población según días que sufre dolor de cabeza al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -77,937 +77,967 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,29%</t>
+    <t>0,32%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>De 8 a 14 días al mes</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>De 1 a 7 días al mes</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>Ningún día o menos de un dia al mes</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>De 8 a 14 días al mes</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>De 1 a 7 días al mes</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>Ningún día o menos de un dia al mes</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>12,1%</t>
   </si>
   <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>84,39%</t>
   </si>
   <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
+    <t>4,65%</t>
+  </si>
+  <si>
     <t>6,06%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>4,49%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
   </si>
   <si>
     <t>80,04%</t>
   </si>
   <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>62,52%</t>
   </si>
   <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1422,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BFDBC9-80D0-4DEA-BC92-7643AF98D3AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031A73FD-E5C2-4275-B920-EBB0CA0EC4B8}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2335,10 +2365,10 @@
         <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -2347,13 +2377,13 @@
         <v>21502</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2398,13 @@
         <v>8186</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>39</v>
@@ -2383,13 +2413,13 @@
         <v>24614</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M20" s="7">
         <v>47</v>
@@ -2398,13 +2428,13 @@
         <v>32799</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2449,13 @@
         <v>81197</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>156</v>
@@ -2434,13 +2464,13 @@
         <v>119868</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>220</v>
@@ -2449,13 +2479,13 @@
         <v>201065</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2500,13 @@
         <v>229960</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>380</v>
@@ -2485,13 +2515,13 @@
         <v>263571</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>596</v>
@@ -2500,13 +2530,13 @@
         <v>493530</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,7 +2592,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2574,13 +2604,13 @@
         <v>2254</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -2589,13 +2619,13 @@
         <v>5067</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -2604,13 +2634,13 @@
         <v>7321</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,13 +2655,13 @@
         <v>6419</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -2640,13 +2670,13 @@
         <v>18657</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -2655,13 +2685,13 @@
         <v>25076</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,10 +2706,10 @@
         <v>17375</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>178</v>
@@ -2834,10 +2864,10 @@
         <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -2846,13 +2876,13 @@
         <v>13670</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
@@ -2861,13 +2891,13 @@
         <v>20202</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2912,13 @@
         <v>9733</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>47</v>
@@ -2897,13 +2927,13 @@
         <v>26978</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>61</v>
@@ -2912,13 +2942,13 @@
         <v>36711</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,13 +2963,13 @@
         <v>62760</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H31" s="7">
         <v>124</v>
@@ -2948,13 +2978,13 @@
         <v>69567</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M31" s="7">
         <v>207</v>
@@ -2963,13 +2993,13 @@
         <v>132328</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +3014,13 @@
         <v>197837</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>264</v>
@@ -2999,13 +3029,13 @@
         <v>164978</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>527</v>
@@ -3014,13 +3044,13 @@
         <v>362814</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,7 +3106,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3088,13 +3118,13 @@
         <v>7820</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="H34" s="7">
         <v>67</v>
@@ -3103,13 +3133,13 @@
         <v>47179</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>75</v>
@@ -3118,13 +3148,13 @@
         <v>54998</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3169,13 @@
         <v>26782</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>58</v>
@@ -3154,13 +3184,13 @@
         <v>40837</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>79</v>
@@ -3169,13 +3199,13 @@
         <v>67618</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,13 +3220,13 @@
         <v>130304</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>309</v>
@@ -3205,13 +3235,13 @@
         <v>338656</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>430</v>
@@ -3220,13 +3250,13 @@
         <v>468960</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3271,13 @@
         <v>454879</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>519</v>
@@ -3256,13 +3286,13 @@
         <v>373610</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>959</v>
@@ -3271,13 +3301,13 @@
         <v>828489</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,7 +3363,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3345,13 +3375,13 @@
         <v>1171</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="H39" s="7">
         <v>29</v>
@@ -3360,13 +3390,13 @@
         <v>30773</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>91</v>
+        <v>268</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M39" s="7">
         <v>30</v>
@@ -3375,13 +3405,13 @@
         <v>31944</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>267</v>
+        <v>163</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3426,13 @@
         <v>6994</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H40" s="7">
         <v>21</v>
@@ -3411,13 +3441,13 @@
         <v>15621</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>29</v>
@@ -3426,13 +3456,13 @@
         <v>22615</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3477,13 @@
         <v>49834</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="H41" s="7">
         <v>117</v>
@@ -3462,13 +3492,13 @@
         <v>88283</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M41" s="7">
         <v>167</v>
@@ -3477,13 +3507,13 @@
         <v>138118</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3528,13 @@
         <v>800245</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H42" s="7">
         <v>887</v>
@@ -3513,13 +3543,13 @@
         <v>727955</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M42" s="7">
         <v>1589</v>
@@ -3528,13 +3558,13 @@
         <v>1528201</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3632,13 @@
         <v>38855</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H44" s="7">
         <v>229</v>
@@ -3617,13 +3647,13 @@
         <v>168246</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M44" s="7">
         <v>271</v>
@@ -3632,13 +3662,13 @@
         <v>207101</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>95</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3683,13 @@
         <v>86055</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>197</v>
+        <v>309</v>
       </c>
       <c r="H45" s="7">
         <v>311</v>
@@ -3668,13 +3698,13 @@
         <v>202061</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>54</v>
+        <v>311</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="M45" s="7">
         <v>401</v>
@@ -3683,13 +3713,13 @@
         <v>288116</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>91</v>
+        <v>314</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3734,13 @@
         <v>548378</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="H46" s="7">
         <v>1389</v>
@@ -3719,13 +3749,13 @@
         <v>1051167</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="M46" s="7">
         <v>1941</v>
@@ -3734,13 +3764,13 @@
         <v>1599544</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,13 +3785,13 @@
         <v>2699497</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="H47" s="7">
         <v>3411</v>
@@ -3770,13 +3800,13 @@
         <v>2371206</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="M47" s="7">
         <v>6088</v>
@@ -3785,13 +3815,13 @@
         <v>5070703</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,7 +3877,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76113FAE-A55D-4F4D-96AE-6E98AF9B682F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A651772-374F-44E2-A679-AA68B26DAB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3DFB1EF-7C9E-4B82-B9CA-3EBC64F80156}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B8F2B002-013D-434C-B2D9-418546D177D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
   <si>
     <t>Población según días que sufre dolor de cabeza al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -71,973 +71,982 @@
     <t>15 ó más días al mes</t>
   </si>
   <si>
-    <t>0,06%</t>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,32%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>De 8 a 14 días al mes</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>De 1 a 7 días al mes</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>Ningún día o menos de un dia al mes</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>De 8 a 14 días al mes</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>De 1 a 7 días al mes</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>Ningún día o menos de un dia al mes</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1452,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031A73FD-E5C2-4275-B920-EBB0CA0EC4B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFAADC9-4EFA-4F84-93EF-0D16E47AD079}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1573,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1588,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>4086</v>
+        <v>4300</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1603,7 +1612,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>4245</v>
+        <v>4470</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1624,7 +1633,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>8754</v>
+        <v>10162</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1639,7 +1648,7 @@
         <v>43</v>
       </c>
       <c r="I5" s="7">
-        <v>23084</v>
+        <v>24811</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1654,7 +1663,7 @@
         <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>31838</v>
+        <v>34973</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1675,7 +1684,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="7">
-        <v>39246</v>
+        <v>45345</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1690,7 +1699,7 @@
         <v>154</v>
       </c>
       <c r="I6" s="7">
-        <v>83473</v>
+        <v>90860</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1705,7 +1714,7 @@
         <v>206</v>
       </c>
       <c r="N6" s="7">
-        <v>122718</v>
+        <v>136205</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1726,7 +1735,7 @@
         <v>267</v>
       </c>
       <c r="D7" s="7">
-        <v>212138</v>
+        <v>255766</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1741,7 +1750,7 @@
         <v>332</v>
       </c>
       <c r="I7" s="7">
-        <v>160761</v>
+        <v>169664</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1756,7 +1765,7 @@
         <v>599</v>
       </c>
       <c r="N7" s="7">
-        <v>372899</v>
+        <v>425429</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1777,7 +1786,7 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1792,7 +1801,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1807,7 +1816,7 @@
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1830,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>13165</v>
+        <v>13049</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1845,7 +1854,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="7">
-        <v>30399</v>
+        <v>28345</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1860,7 +1869,7 @@
         <v>50</v>
       </c>
       <c r="N9" s="7">
-        <v>43563</v>
+        <v>41394</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1881,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>11248</v>
+        <v>10871</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1896,7 +1905,7 @@
         <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>29863</v>
+        <v>27627</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1911,7 +1920,7 @@
         <v>46</v>
       </c>
       <c r="N10" s="7">
-        <v>41112</v>
+        <v>38497</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1932,7 +1941,7 @@
         <v>99</v>
       </c>
       <c r="D11" s="7">
-        <v>119260</v>
+        <v>115005</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1947,7 +1956,7 @@
         <v>266</v>
       </c>
       <c r="I11" s="7">
-        <v>196865</v>
+        <v>182620</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1962,7 +1971,7 @@
         <v>365</v>
       </c>
       <c r="N11" s="7">
-        <v>316125</v>
+        <v>297625</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1983,7 +1992,7 @@
         <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>375624</v>
+        <v>379465</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1998,7 +2007,7 @@
         <v>375</v>
       </c>
       <c r="I12" s="7">
-        <v>297439</v>
+        <v>276378</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -2013,7 +2022,7 @@
         <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>673064</v>
+        <v>655843</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -2034,7 +2043,7 @@
         <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2049,7 +2058,7 @@
         <v>717</v>
       </c>
       <c r="I13" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2064,7 +2073,7 @@
         <v>1099</v>
       </c>
       <c r="N13" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2087,7 +2096,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>5574</v>
+        <v>5367</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -2102,7 +2111,7 @@
         <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>17749</v>
+        <v>16543</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -2117,7 +2126,7 @@
         <v>35</v>
       </c>
       <c r="N14" s="7">
-        <v>23324</v>
+        <v>21911</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -2138,7 +2147,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="7">
-        <v>7939</v>
+        <v>7705</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>98</v>
@@ -2153,7 +2162,7 @@
         <v>29</v>
       </c>
       <c r="I15" s="7">
-        <v>22408</v>
+        <v>20924</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>101</v>
@@ -2168,7 +2177,7 @@
         <v>38</v>
       </c>
       <c r="N15" s="7">
-        <v>30346</v>
+        <v>28629</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>104</v>
@@ -2189,7 +2198,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>48401</v>
+        <v>47313</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -2204,7 +2213,7 @@
         <v>145</v>
       </c>
       <c r="I16" s="7">
-        <v>102714</v>
+        <v>96291</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -2219,7 +2228,7 @@
         <v>202</v>
       </c>
       <c r="N16" s="7">
-        <v>151115</v>
+        <v>143604</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -2240,7 +2249,7 @@
         <v>284</v>
       </c>
       <c r="D17" s="7">
-        <v>258114</v>
+        <v>253568</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>116</v>
@@ -2255,7 +2264,7 @@
         <v>329</v>
       </c>
       <c r="I17" s="7">
-        <v>226453</v>
+        <v>211684</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>119</v>
@@ -2270,7 +2279,7 @@
         <v>613</v>
       </c>
       <c r="N17" s="7">
-        <v>484568</v>
+        <v>465253</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>122</v>
@@ -2291,7 +2300,7 @@
         <v>357</v>
       </c>
       <c r="D18" s="7">
-        <v>320028</v>
+        <v>313954</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2306,7 +2315,7 @@
         <v>531</v>
       </c>
       <c r="I18" s="7">
-        <v>369325</v>
+        <v>345443</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2321,7 +2330,7 @@
         <v>888</v>
       </c>
       <c r="N18" s="7">
-        <v>689353</v>
+        <v>659397</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2344,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>2178</v>
+        <v>2073</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>126</v>
@@ -2359,13 +2368,13 @@
         <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>19324</v>
+        <v>17137</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>130</v>
@@ -2374,16 +2383,16 @@
         <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>21502</v>
+        <v>19210</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2395,46 +2404,46 @@
         <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>8186</v>
+        <v>8153</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>39</v>
       </c>
       <c r="I20" s="7">
-        <v>24614</v>
+        <v>22505</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>47</v>
       </c>
       <c r="N20" s="7">
-        <v>32799</v>
+        <v>30658</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,46 +2455,46 @@
         <v>64</v>
       </c>
       <c r="D21" s="7">
-        <v>81197</v>
+        <v>78570</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>156</v>
       </c>
       <c r="I21" s="7">
-        <v>119868</v>
+        <v>166919</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>220</v>
       </c>
       <c r="N21" s="7">
-        <v>201065</v>
+        <v>245489</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,46 +2506,46 @@
         <v>216</v>
       </c>
       <c r="D22" s="7">
-        <v>229960</v>
+        <v>223077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>380</v>
       </c>
       <c r="I22" s="7">
-        <v>263571</v>
+        <v>268048</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>596</v>
       </c>
       <c r="N22" s="7">
-        <v>493530</v>
+        <v>491125</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,7 +2557,7 @@
         <v>291</v>
       </c>
       <c r="D23" s="7">
-        <v>321521</v>
+        <v>311873</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2563,7 +2572,7 @@
         <v>596</v>
       </c>
       <c r="I23" s="7">
-        <v>427376</v>
+        <v>474609</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2578,7 +2587,7 @@
         <v>887</v>
       </c>
       <c r="N23" s="7">
-        <v>748897</v>
+        <v>786482</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2592,7 +2601,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2601,46 +2610,46 @@
         <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>2254</v>
+        <v>2024</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>5067</v>
+        <v>4620</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
       </c>
       <c r="N24" s="7">
-        <v>7321</v>
+        <v>6644</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,46 +2661,46 @@
         <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>6419</v>
+        <v>5856</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
       </c>
       <c r="I25" s="7">
-        <v>18657</v>
+        <v>16822</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
       </c>
       <c r="N25" s="7">
-        <v>25076</v>
+        <v>22678</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,46 +2712,46 @@
         <v>26</v>
       </c>
       <c r="D26" s="7">
-        <v>17375</v>
+        <v>15794</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>118</v>
       </c>
       <c r="I26" s="7">
-        <v>51741</v>
+        <v>47199</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>144</v>
       </c>
       <c r="N26" s="7">
-        <v>69116</v>
+        <v>62993</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,46 +2763,46 @@
         <v>242</v>
       </c>
       <c r="D27" s="7">
-        <v>170699</v>
+        <v>155068</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>325</v>
       </c>
       <c r="I27" s="7">
-        <v>156439</v>
+        <v>140015</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>567</v>
       </c>
       <c r="N27" s="7">
-        <v>327138</v>
+        <v>295083</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,7 +2814,7 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2820,7 +2829,7 @@
         <v>492</v>
       </c>
       <c r="I28" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2835,7 +2844,7 @@
         <v>771</v>
       </c>
       <c r="N28" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2849,7 +2858,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2858,46 +2867,46 @@
         <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>6532</v>
+        <v>6181</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
       </c>
       <c r="I29" s="7">
-        <v>13670</v>
+        <v>12749</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
       </c>
       <c r="N29" s="7">
-        <v>20202</v>
+        <v>18930</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,46 +2918,46 @@
         <v>14</v>
       </c>
       <c r="D30" s="7">
-        <v>9733</v>
+        <v>9264</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>47</v>
       </c>
       <c r="I30" s="7">
-        <v>26978</v>
+        <v>25103</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>61</v>
       </c>
       <c r="N30" s="7">
-        <v>36711</v>
+        <v>34367</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,46 +2969,46 @@
         <v>83</v>
       </c>
       <c r="D31" s="7">
-        <v>62760</v>
+        <v>61175</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>124</v>
       </c>
       <c r="I31" s="7">
-        <v>69567</v>
+        <v>64892</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>207</v>
       </c>
       <c r="N31" s="7">
-        <v>132328</v>
+        <v>126067</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,46 +3020,46 @@
         <v>263</v>
       </c>
       <c r="D32" s="7">
-        <v>197837</v>
+        <v>192676</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>264</v>
       </c>
       <c r="I32" s="7">
-        <v>164978</v>
+        <v>153916</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>527</v>
       </c>
       <c r="N32" s="7">
-        <v>362814</v>
+        <v>346591</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,7 +3071,7 @@
         <v>370</v>
       </c>
       <c r="D33" s="7">
-        <v>276862</v>
+        <v>269295</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -3077,7 +3086,7 @@
         <v>459</v>
       </c>
       <c r="I33" s="7">
-        <v>275193</v>
+        <v>256660</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -3092,7 +3101,7 @@
         <v>829</v>
       </c>
       <c r="N33" s="7">
-        <v>552055</v>
+        <v>525955</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -3106,7 +3115,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3115,46 +3124,46 @@
         <v>8</v>
       </c>
       <c r="D34" s="7">
-        <v>7820</v>
+        <v>7521</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>67</v>
       </c>
       <c r="I34" s="7">
-        <v>47179</v>
+        <v>43444</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>75</v>
       </c>
       <c r="N34" s="7">
-        <v>54998</v>
+        <v>50965</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,46 +3175,46 @@
         <v>21</v>
       </c>
       <c r="D35" s="7">
-        <v>26782</v>
+        <v>26812</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>58</v>
       </c>
       <c r="I35" s="7">
-        <v>40837</v>
+        <v>37764</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>79</v>
       </c>
       <c r="N35" s="7">
-        <v>67618</v>
+        <v>64577</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,46 +3226,46 @@
         <v>121</v>
       </c>
       <c r="D36" s="7">
-        <v>130304</v>
+        <v>132269</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>309</v>
       </c>
       <c r="I36" s="7">
-        <v>338656</v>
+        <v>417695</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>430</v>
       </c>
       <c r="N36" s="7">
-        <v>468960</v>
+        <v>549964</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,46 +3277,46 @@
         <v>440</v>
       </c>
       <c r="D37" s="7">
-        <v>454879</v>
+        <v>450075</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>519</v>
       </c>
       <c r="I37" s="7">
-        <v>373610</v>
+        <v>346664</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>959</v>
       </c>
       <c r="N37" s="7">
-        <v>828489</v>
+        <v>796738</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,7 +3328,7 @@
         <v>590</v>
       </c>
       <c r="D38" s="7">
-        <v>619784</v>
+        <v>616678</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -3334,7 +3343,7 @@
         <v>953</v>
       </c>
       <c r="I38" s="7">
-        <v>800281</v>
+        <v>845567</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>50</v>
@@ -3349,7 +3358,7 @@
         <v>1543</v>
       </c>
       <c r="N38" s="7">
-        <v>1420065</v>
+        <v>1462244</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3363,7 +3372,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3372,46 +3381,46 @@
         <v>1</v>
       </c>
       <c r="D39" s="7">
-        <v>1171</v>
+        <v>1008</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H39" s="7">
         <v>29</v>
       </c>
       <c r="I39" s="7">
-        <v>30773</v>
+        <v>24695</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M39" s="7">
         <v>30</v>
       </c>
       <c r="N39" s="7">
-        <v>31944</v>
+        <v>25703</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,46 +3432,46 @@
         <v>8</v>
       </c>
       <c r="D40" s="7">
-        <v>6994</v>
+        <v>5956</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>21</v>
       </c>
       <c r="I40" s="7">
-        <v>15621</v>
+        <v>13087</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>29</v>
       </c>
       <c r="N40" s="7">
-        <v>22615</v>
+        <v>19043</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,46 +3483,46 @@
         <v>50</v>
       </c>
       <c r="D41" s="7">
-        <v>49834</v>
+        <v>42111</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H41" s="7">
         <v>117</v>
       </c>
       <c r="I41" s="7">
-        <v>88283</v>
+        <v>73719</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>167</v>
       </c>
       <c r="N41" s="7">
-        <v>138118</v>
+        <v>115829</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,46 +3534,46 @@
         <v>702</v>
       </c>
       <c r="D42" s="7">
-        <v>800245</v>
+        <v>878620</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>887</v>
       </c>
       <c r="I42" s="7">
-        <v>727955</v>
+        <v>601309</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>1589</v>
       </c>
       <c r="N42" s="7">
-        <v>1528201</v>
+        <v>1479929</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,7 +3585,7 @@
         <v>761</v>
       </c>
       <c r="D43" s="7">
-        <v>858245</v>
+        <v>927695</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>50</v>
@@ -3591,7 +3600,7 @@
         <v>1054</v>
       </c>
       <c r="I43" s="7">
-        <v>862633</v>
+        <v>712809</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>50</v>
@@ -3606,7 +3615,7 @@
         <v>1815</v>
       </c>
       <c r="N43" s="7">
-        <v>1720878</v>
+        <v>1640504</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>50</v>
@@ -3629,46 +3638,46 @@
         <v>42</v>
       </c>
       <c r="D44" s="7">
-        <v>38855</v>
+        <v>37393</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>160</v>
+        <v>305</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H44" s="7">
         <v>229</v>
       </c>
       <c r="I44" s="7">
-        <v>168246</v>
+        <v>151834</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>302</v>
+        <v>100</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M44" s="7">
         <v>271</v>
       </c>
       <c r="N44" s="7">
-        <v>207101</v>
+        <v>189227</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,46 +3689,46 @@
         <v>90</v>
       </c>
       <c r="D45" s="7">
-        <v>86055</v>
+        <v>84779</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>133</v>
+        <v>312</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H45" s="7">
         <v>311</v>
       </c>
       <c r="I45" s="7">
-        <v>202061</v>
+        <v>188642</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>311</v>
+        <v>28</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M45" s="7">
         <v>401</v>
       </c>
       <c r="N45" s="7">
-        <v>288116</v>
+        <v>273422</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,46 +3740,46 @@
         <v>552</v>
       </c>
       <c r="D46" s="7">
-        <v>548378</v>
+        <v>537582</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H46" s="7">
         <v>1389</v>
       </c>
       <c r="I46" s="7">
-        <v>1051167</v>
+        <v>1140195</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M46" s="7">
         <v>1941</v>
       </c>
       <c r="N46" s="7">
-        <v>1599544</v>
+        <v>1677777</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,46 +3791,46 @@
         <v>2677</v>
       </c>
       <c r="D47" s="7">
-        <v>2699497</v>
+        <v>2788314</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H47" s="7">
         <v>3411</v>
       </c>
       <c r="I47" s="7">
-        <v>2371206</v>
+        <v>2167677</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M47" s="7">
         <v>6088</v>
       </c>
       <c r="N47" s="7">
-        <v>5070703</v>
+        <v>4955991</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>333</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,7 +3842,7 @@
         <v>3361</v>
       </c>
       <c r="D48" s="7">
-        <v>3372784</v>
+        <v>3448068</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -3848,7 +3857,7 @@
         <v>5340</v>
       </c>
       <c r="I48" s="7">
-        <v>3792680</v>
+        <v>3648348</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>50</v>
@@ -3863,7 +3872,7 @@
         <v>8701</v>
       </c>
       <c r="N48" s="7">
-        <v>7165464</v>
+        <v>7096416</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>
@@ -3877,7 +3886,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
